--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -23,13 +23,13 @@
     <t>测试概括</t>
   </si>
   <si>
-    <t>APP名称</t>
-  </si>
-  <si>
-    <t>APP大小</t>
-  </si>
-  <si>
-    <t>APP版本</t>
+    <t>web名称</t>
+  </si>
+  <si>
+    <t>浏览器类型</t>
+  </si>
+  <si>
+    <t>浏览器版本</t>
   </si>
   <si>
     <t>测试日期</t>
@@ -50,7 +50,7 @@
     <t>脚本语言</t>
   </si>
   <si>
-    <t>appium+python3</t>
+    <t>selenium+python3</t>
   </si>
   <si>
     <t>测试手机详情</t>
@@ -151,7 +151,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -217,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,6 +233,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257692</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="时讯汇·科技-01.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5401067" cy="5401067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,7 +569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -529,11 +578,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
@@ -636,12 +683,13 @@
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
